--- a/portfolio-analysis/PortfolioInputTemplate.xlsx
+++ b/portfolio-analysis/PortfolioInputTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmanello/Desktop/Personal/Portfolio/roshanm0903.github.io/portfolio-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E1C8C-6FD2-B048-A00A-95FB661EC889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31758183-C266-D84F-8C00-F1D854304389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2000" windowWidth="26960" windowHeight="14620" xr2:uid="{1B097A37-4383-1347-BD2C-585BCD8DF218}"/>
+    <workbookView xWindow="1520" yWindow="2000" windowWidth="26960" windowHeight="14620" activeTab="1" xr2:uid="{1B097A37-4383-1347-BD2C-585BCD8DF218}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="805">
   <si>
     <t>FundName</t>
   </si>
@@ -1566,9 +1566,6 @@
     <t>Aditya Birla Sun Life Nifty 50 Index Fund</t>
   </si>
   <si>
-    <t>Nippon India Index Fund</t>
-  </si>
-  <si>
     <t>IDFC Nifty 50 Index Fund</t>
   </si>
   <si>
@@ -2491,6 +2488,12 @@
   </si>
   <si>
     <t>AdityaBirla</t>
+  </si>
+  <si>
+    <t>Nippon India Index Fund - Nifty 50 Plan</t>
+  </si>
+  <si>
+    <t>Nippon India Index Fund - S&amp;P BSE Sensex</t>
   </si>
 </sst>
 </file>
@@ -2879,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE3CB2E-CF9A-6644-B5E2-43E7BCE225C3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2890,7 +2893,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2901,7 +2904,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -2937,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2B6D29-7F3D-9744-9207-4F66307637EC}">
   <dimension ref="B2:AO423"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B46"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2968,126 +2971,126 @@
   <sheetData>
     <row r="2" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E2" t="s">
+        <v>753</v>
+      </c>
+      <c r="F2" t="s">
         <v>754</v>
       </c>
-      <c r="F2" t="s">
-        <v>755</v>
-      </c>
       <c r="G2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2" t="s">
+        <v>788</v>
+      </c>
+      <c r="I2" t="s">
         <v>790</v>
       </c>
-      <c r="H2" t="s">
-        <v>789</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>791</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>792</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>757</v>
+      </c>
+      <c r="M2" t="s">
+        <v>758</v>
+      </c>
+      <c r="N2" t="s">
         <v>793</v>
       </c>
-      <c r="L2" t="s">
-        <v>758</v>
-      </c>
-      <c r="M2" t="s">
-        <v>759</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>760</v>
+      </c>
+      <c r="P2" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>762</v>
+      </c>
+      <c r="R2" t="s">
+        <v>763</v>
+      </c>
+      <c r="S2" t="s">
         <v>794</v>
       </c>
-      <c r="O2" t="s">
-        <v>761</v>
-      </c>
-      <c r="P2" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>763</v>
-      </c>
-      <c r="R2" t="s">
-        <v>764</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>765</v>
+      </c>
+      <c r="U2" t="s">
+        <v>766</v>
+      </c>
+      <c r="V2" t="s">
+        <v>767</v>
+      </c>
+      <c r="W2" t="s">
+        <v>768</v>
+      </c>
+      <c r="X2" t="s">
         <v>795</v>
       </c>
-      <c r="T2" t="s">
-        <v>766</v>
-      </c>
-      <c r="U2" t="s">
-        <v>767</v>
-      </c>
-      <c r="V2" t="s">
-        <v>768</v>
-      </c>
-      <c r="W2" t="s">
-        <v>769</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>796</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>797</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>798</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>775</v>
+      </c>
+      <c r="AC2" t="s">
         <v>799</v>
       </c>
-      <c r="AB2" t="s">
-        <v>776</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>800</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>801</v>
       </c>
-      <c r="AE2" t="s">
-        <v>802</v>
-      </c>
       <c r="AF2" t="s">
+        <v>779</v>
+      </c>
+      <c r="AG2" t="s">
         <v>780</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>781</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>782</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>783</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>784</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>785</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>786</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>787</v>
       </c>
-      <c r="AN2" t="s">
-        <v>788</v>
-      </c>
       <c r="AO2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>484</v>
@@ -3096,25 +3099,25 @@
         <v>480</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>307</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>468</v>
@@ -3132,120 +3135,120 @@
         <v>330</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>452</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>436</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>419</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>259</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>307</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>403</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>196</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>275</v>
@@ -3257,40 +3260,40 @@
         <v>441</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>390</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>5</v>
@@ -3299,22 +3302,22 @@
         <v>485</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>382</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AL4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AN4" s="2" t="s">
         <v>247</v>
@@ -3325,25 +3328,25 @@
     </row>
     <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>460</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>268</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>415</v>
@@ -3355,7 +3358,7 @@
         <v>430</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>257</v>
@@ -3367,7 +3370,7 @@
         <v>473</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>428</v>
@@ -3379,7 +3382,7 @@
         <v>370</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>209</v>
@@ -3394,7 +3397,7 @@
         <v>246</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>377</v>
@@ -3418,10 +3421,10 @@
         <v>253</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>238</v>
@@ -3430,7 +3433,7 @@
         <v>267</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AN5" s="2" t="s">
         <v>92</v>
@@ -3441,16 +3444,16 @@
     </row>
     <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>250</v>
@@ -3462,22 +3465,22 @@
         <v>103</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>434</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>481</v>
@@ -3489,7 +3492,7 @@
         <v>410</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>335</v>
@@ -3498,19 +3501,19 @@
         <v>115</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>90</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>91</v>
@@ -3534,7 +3537,7 @@
         <v>162</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AK6" s="2" t="s">
         <v>265</v>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>239</v>
@@ -3569,16 +3572,16 @@
         <v>286</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>241</v>
@@ -3599,7 +3602,7 @@
         <v>354</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>83</v>
@@ -3608,31 +3611,31 @@
         <v>60</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>394</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>388</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>273</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>323</v>
@@ -3641,7 +3644,7 @@
         <v>455</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>199</v>
@@ -3656,7 +3659,7 @@
         <v>348</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AO7" s="2" t="s">
         <v>395</v>
@@ -3664,19 +3667,19 @@
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>281</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>157</v>
@@ -3703,7 +3706,7 @@
         <v>331</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>320</v>
@@ -3715,10 +3718,10 @@
         <v>154</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>384</v>
@@ -3736,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>368</v>
@@ -3748,7 +3751,7 @@
         <v>153</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>49</v>
@@ -3760,21 +3763,21 @@
         <v>80</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>203</v>
@@ -3786,10 +3789,10 @@
         <v>379</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>101</v>
@@ -3810,7 +3813,7 @@
         <v>96</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>136</v>
@@ -3828,7 +3831,7 @@
         <v>206</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>293</v>
@@ -3837,10 +3840,10 @@
         <v>108</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>418</v>
@@ -3849,7 +3852,7 @@
         <v>87</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AJ9" s="2" t="s">
         <v>48</v>
@@ -3858,7 +3861,7 @@
         <v>358</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AM9" s="2" t="s">
         <v>112</v>
@@ -3869,19 +3872,19 @@
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>417</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>346</v>
@@ -3893,7 +3896,7 @@
         <v>413</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>198</v>
@@ -3902,22 +3905,22 @@
         <v>416</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>317</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>333</v>
@@ -3935,10 +3938,10 @@
         <v>171</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>402</v>
@@ -3947,13 +3950,13 @@
         <v>85</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>170</v>
@@ -3967,13 +3970,13 @@
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>177</v>
@@ -4003,13 +4006,13 @@
         <v>254</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>315</v>
@@ -4018,7 +4021,7 @@
         <v>302</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>77</v>
@@ -4027,25 +4030,25 @@
         <v>121</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>118</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF11" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>47</v>
@@ -4062,13 +4065,13 @@
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>186</v>
@@ -4089,7 +4092,7 @@
         <v>420</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>104</v>
@@ -4125,10 +4128,10 @@
         <v>63</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>393</v>
@@ -4137,10 +4140,10 @@
         <v>74</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>45</v>
@@ -4152,12 +4155,12 @@
         <v>137</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>313</v>
@@ -4196,7 +4199,7 @@
         <v>355</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>243</v>
@@ -4220,7 +4223,7 @@
         <v>138</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>401</v>
@@ -4235,7 +4238,7 @@
         <v>288</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>44</v>
@@ -4252,7 +4255,7 @@
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>194</v>
@@ -4282,7 +4285,7 @@
         <v>479</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>130</v>
@@ -4306,7 +4309,7 @@
         <v>110</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>399</v>
@@ -4321,13 +4324,13 @@
         <v>141</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM14" s="2" t="s">
         <v>356</v>
@@ -4338,7 +4341,7 @@
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>107</v>
@@ -4365,10 +4368,10 @@
         <v>456</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>337</v>
@@ -4386,7 +4389,7 @@
         <v>146</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>122</v>
@@ -4395,10 +4398,10 @@
         <v>367</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>276</v>
@@ -4409,10 +4412,10 @@
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>411</v>
@@ -4436,13 +4439,13 @@
         <v>462</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>465</v>
@@ -4454,10 +4457,10 @@
         <v>132</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AH16" s="2" t="s">
         <v>298</v>
@@ -4474,16 +4477,16 @@
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>477</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>119</v>
@@ -4492,7 +4495,7 @@
         <v>459</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>135</v>
@@ -4513,13 +4516,13 @@
         <v>207</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>495</v>
+        <v>803</v>
       </c>
       <c r="AH17" s="2" t="s">
         <v>319</v>
@@ -4536,7 +4539,7 @@
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>300</v>
@@ -4545,19 +4548,19 @@
         <v>111</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>463</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>230</v>
@@ -4572,16 +4575,16 @@
         <v>256</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>495</v>
+        <v>804</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>214</v>
@@ -4595,7 +4598,7 @@
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>461</v>
@@ -4604,10 +4607,10 @@
         <v>173</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>472</v>
@@ -4634,13 +4637,13 @@
         <v>165</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC19" s="2" t="s">
         <v>233</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>94</v>
@@ -4649,12 +4652,12 @@
         <v>100</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>448</v>
@@ -4663,10 +4666,10 @@
         <v>124</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>469</v>
@@ -4681,7 +4684,7 @@
         <v>305</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>127</v>
@@ -4690,7 +4693,7 @@
         <v>20</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>55</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>466</v>
@@ -4722,10 +4725,10 @@
         <v>295</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>228</v>
@@ -4735,7 +4738,7 @@
         <v>326</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>10</v>
@@ -4744,13 +4747,13 @@
         <v>421</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AJ21" s="2" t="s">
         <v>179</v>
@@ -4759,24 +4762,24 @@
         <v>120</v>
       </c>
       <c r="AN21" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>212</v>
@@ -4789,16 +4792,16 @@
         <v>405</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>232</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>6</v>
@@ -4810,27 +4813,27 @@
         <v>183</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>336</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>133</v>
@@ -4849,13 +4852,13 @@
         <v>38</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AH23" s="2" t="s">
         <v>332</v>
@@ -4864,15 +4867,15 @@
         <v>180</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>70</v>
@@ -4890,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
@@ -4903,13 +4906,13 @@
         <v>168</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AH24" s="2" t="s">
         <v>426</v>
@@ -4921,18 +4924,18 @@
         <v>423</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>449</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>81</v>
@@ -4954,10 +4957,10 @@
         <v>427</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AH25" s="2" t="s">
         <v>294</v>
@@ -4966,21 +4969,21 @@
         <v>182</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>450</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>424</v>
@@ -4992,7 +4995,7 @@
         <v>301</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
@@ -5014,24 +5017,24 @@
         <v>269</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>425</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>366</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
@@ -5041,7 +5044,7 @@
         <v>27</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AH27" s="2" t="s">
         <v>89</v>
@@ -5058,7 +5061,7 @@
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>211</v>
@@ -5070,7 +5073,7 @@
         <v>438</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
@@ -5089,7 +5092,7 @@
         <v>175</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN28" s="2" t="s">
         <v>258</v>
@@ -5097,19 +5100,19 @@
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>432</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
@@ -5133,7 +5136,7 @@
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>271</v>
@@ -5163,7 +5166,7 @@
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>278</v>
@@ -5193,13 +5196,13 @@
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>270</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>59</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>123</v>
@@ -5238,12 +5241,12 @@
         <v>176</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>225</v>
@@ -5263,13 +5266,13 @@
     </row>
     <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AC35" s="2" t="s">
         <v>234</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>422</v>
@@ -5303,13 +5306,13 @@
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC37" s="2" t="s">
         <v>102</v>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>494</v>
@@ -5340,27 +5343,27 @@
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>451</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH40" s="2" t="s">
         <v>24</v>
@@ -5368,10 +5371,10 @@
     </row>
     <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH41" s="2" t="s">
         <v>489</v>
@@ -5379,21 +5382,21 @@
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH42" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AH43" s="2" t="s">
         <v>242</v>
@@ -5404,7 +5407,7 @@
         <v>314</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AH44" s="2" t="s">
         <v>188</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="47" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>299</v>
@@ -5450,7 +5453,7 @@
         <v>42</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
@@ -5466,7 +5469,7 @@
         <v>144</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.25">

--- a/portfolio-analysis/PortfolioInputTemplate.xlsx
+++ b/portfolio-analysis/PortfolioInputTemplate.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmanello/Desktop/Personal/Portfolio/roshanm0903.github.io/portfolio-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31758183-C266-D84F-8C00-F1D854304389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B97DB3-5860-314E-94EA-9D1AD129A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="2000" windowWidth="26960" windowHeight="14620" activeTab="1" xr2:uid="{1B097A37-4383-1347-BD2C-585BCD8DF218}"/>
+    <workbookView xWindow="1520" yWindow="2000" windowWidth="26960" windowHeight="14620" xr2:uid="{1B097A37-4383-1347-BD2C-585BCD8DF218}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="Validation" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Validation!$E$1:$G$729</definedName>
@@ -2570,7 +2570,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2882,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE3CB2E-CF9A-6644-B5E2-43E7BCE225C3}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2940,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2B6D29-7F3D-9744-9207-4F66307637EC}">
   <dimension ref="B2:AO423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView topLeftCell="F5" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5664,6 +5675,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B44">
     <sortCondition ref="B3:B44"/>
   </sortState>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{EE043B87-C4BA-F14F-8574-39223CCDAA57}"/>
   </hyperlinks>

--- a/portfolio-analysis/PortfolioInputTemplate.xlsx
+++ b/portfolio-analysis/PortfolioInputTemplate.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmanello/Desktop/Personal/Portfolio/roshanm0903.github.io/portfolio-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B97DB3-5860-314E-94EA-9D1AD129A435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FF4BE4-48ED-7643-B66F-F18DCA650048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="2000" windowWidth="26960" windowHeight="14620" xr2:uid="{1B097A37-4383-1347-BD2C-585BCD8DF218}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="Validation" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Validation" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Validation!$E$1:$G$729</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Validation!$E$1:$G$729</definedName>
     <definedName name="AdityaBirla">Validation!$D$3:$D$67</definedName>
     <definedName name="Axis">Validation!$E$3:$E$67</definedName>
     <definedName name="Bank_of_India">Validation!$F$3:$F$67</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="806">
   <si>
     <t>FundName</t>
   </si>
@@ -2494,6 +2495,9 @@
   </si>
   <si>
     <t>Nippon India Index Fund - S&amp;P BSE Sensex</t>
+  </si>
+  <si>
+    <t>Quant Small Cap Fund</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2566,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2891,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE3CB2E-CF9A-6644-B5E2-43E7BCE225C3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2903,7 +2907,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2922,16 +2926,6 @@
       </c>
       <c r="C2">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2948,11 +2942,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD774D1-2C83-5942-A7AD-573DE3D2714A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2B6D29-7F3D-9744-9207-4F66307637EC}">
   <dimension ref="B2:AO423"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="AC1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4473,6 +4479,9 @@
       <c r="AC16" s="2" t="s">
         <v>625</v>
       </c>
+      <c r="AF16" t="s">
+        <v>805</v>
+      </c>
       <c r="AH16" s="2" t="s">
         <v>298</v>
       </c>
